--- a/TestData/Labour2.xlsx
+++ b/TestData/Labour2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12880" windowHeight="2390" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="2510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Distributor" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="RCP Login" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I6"/>
+  <oleSize ref="A1:G6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
